--- a/data/lima-isoseq3-cDNA_Cupcake-test_results.xlsx
+++ b/data/lima-isoseq3-cDNA_Cupcake-test_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="lima+isoseq3 results" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t xml:space="preserve">Sample 1</t>
   </si>
@@ -46,6 +46,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ZMWs input </t>
     </r>
@@ -55,6 +56,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(A)</t>
     </r>
@@ -63,12 +65,10 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <r>
@@ -76,6 +76,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ZMWs above all thresholds </t>
     </r>
@@ -85,6 +86,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(B)</t>
     </r>
@@ -106,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">245639 (90%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (0%)</t>
   </si>
   <si>
     <t xml:space="preserve">249243 (92%)</t>
@@ -116,6 +121,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ZMWs below any threshold </t>
     </r>
@@ -125,6 +131,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(C)</t>
     </r>
@@ -148,6 +155,9 @@
     <t xml:space="preserve">26000 (10%)</t>
   </si>
   <si>
+    <t xml:space="preserve">271637 (100%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22396 (8%)</t>
   </si>
   <si>
@@ -166,6 +176,9 @@
     <t xml:space="preserve">18 (0%)</t>
   </si>
   <si>
+    <t xml:space="preserve">16 (0%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Below min score               </t>
   </si>
   <si>
@@ -190,6 +203,9 @@
     <t xml:space="preserve">3256 (13%)</t>
   </si>
   <si>
+    <t xml:space="preserve">266336 (98%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">3379 (15%)</t>
   </si>
   <si>
@@ -235,6 +251,9 @@
     <t xml:space="preserve">10783 (41%)</t>
   </si>
   <si>
+    <t xml:space="preserve">266444 (98%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Without SMRTbell adapter      </t>
   </si>
   <si>
@@ -259,6 +278,9 @@
     <t xml:space="preserve">15895 (61%)</t>
   </si>
   <si>
+    <t xml:space="preserve">14212 (5%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">15535 (69%)</t>
   </si>
   <si>
@@ -283,12 +305,18 @@
     <t xml:space="preserve">3463 (13%)</t>
   </si>
   <si>
+    <t xml:space="preserve">15144 (6%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">3408 (15%)</t>
   </si>
   <si>
     <t xml:space="preserve">Undesired no hit              </t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZMWs for (B)</t>
   </si>
   <si>
@@ -313,6 +341,9 @@
     <t xml:space="preserve">245639 (100%)</t>
   </si>
   <si>
+    <t xml:space="preserve">2 (100%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">249243 (100%)</t>
   </si>
   <si>
@@ -343,6 +374,9 @@
     <t xml:space="preserve">271636 (100%)</t>
   </si>
   <si>
+    <t xml:space="preserve">271639 (100%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Allow same pair               </t>
   </si>
   <si>
@@ -412,6 +446,9 @@
     <t xml:space="preserve">library</t>
   </si>
   <si>
+    <t xml:space="preserve">busco_isoseq3_cluster</t>
+  </si>
+  <si>
     <t xml:space="preserve">hq_transcripts</t>
   </si>
   <si>
@@ -446,9 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">busco_c95_i95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busco_cluster</t>
   </si>
   <si>
     <t xml:space="preserve">busco_dataset</t>
@@ -485,6 +519,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -506,6 +541,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -558,9 +594,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -572,6 +612,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,21 +654,21 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="35.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +678,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -643,873 +687,887 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>363119</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>363119</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="4" t="n">
         <v>363119</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="4" t="n">
         <v>363119</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="n">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="n">
         <v>271639</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="4" t="n">
         <v>271639</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="5" t="n">
+        <v>271639</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>271639</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="3" t="n">
-        <v>271639</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>28</v>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>42</v>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="D28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+      <c r="J28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="3" t="n">
+      <c r="A37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="4" t="n">
         <v>954</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" s="4" t="n">
         <v>954</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3" t="n">
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>954</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="n">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="n">
         <v>954</v>
       </c>
-      <c r="H37" s="3" t="n">
+      <c r="H37" s="4" t="n">
         <v>954</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="3" t="n">
+      <c r="I37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="4" t="n">
         <v>954</v>
       </c>
     </row>
@@ -1535,245 +1593,266 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="14.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="7" t="n">
+      <c r="A2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>34327</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="9" t="n">
         <v>330</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="E2" s="9" t="n">
         <v>2803</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="F2" s="9" t="n">
         <v>2803</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="G2" s="9" t="n">
         <v>2071</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="H2" s="9" t="n">
         <v>1933</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="I2" s="9" t="n">
         <v>1887</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="J2" s="9" t="n">
         <v>21.5</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="K2" s="9" t="n">
         <v>21.5</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="L2" s="9" t="n">
         <v>26.7</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="M2" s="9" t="n">
         <v>28.5</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="N2" s="9" t="n">
         <v>28.8</v>
       </c>
-      <c r="N2" s="7" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" s="7" t="n">
+      <c r="O2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="9" t="n">
         <v>954</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="A3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>22078</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="7" t="n">
+      <c r="D3" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="n">
+        <v>2316</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>1320</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>857</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>771</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>742</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N3" s="9" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="9" t="n">
         <v>954</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="7" t="n">
+      <c r="A4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>32306</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="D4" s="9" t="n">
         <v>163</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="E4" s="9" t="n">
         <v>19026</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="F4" s="9" t="n">
         <v>4370</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="G4" s="9" t="n">
         <v>2090</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="H4" s="9" t="n">
         <v>1543</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="I4" s="9" t="n">
         <v>1243</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="J4" s="9" t="n">
         <v>22.2</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="K4" s="9" t="n">
         <v>50.3</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="L4" s="9" t="n">
         <v>60.4</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="M4" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="N4" s="9" t="n">
         <v>62.4</v>
       </c>
-      <c r="N4" s="7" t="n">
-        <v>62.6</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="A5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <v>32801</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="D5" s="9" t="n">
         <v>148</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="E5" s="9" t="n">
         <v>20794</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="F5" s="9" t="n">
         <v>5976</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="G5" s="9" t="n">
         <v>3224</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="H5" s="9" t="n">
         <v>2541</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="I5" s="9" t="n">
         <v>2172</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="J5" s="9" t="n">
         <v>21.5</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="K5" s="9" t="n">
         <v>49.7</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="L5" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="M5" s="9" t="n">
         <v>63.1</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="N5" s="9" t="n">
         <v>63.4</v>
       </c>
-      <c r="N5" s="7" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
